--- a/data/SpellsDialogue.xlsx
+++ b/data/SpellsDialogue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Spell Name</t>
+          <t>Incantation</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Character ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Chapter ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Movie ID</t>
         </is>
       </c>
     </row>
@@ -454,335 +464,2347 @@
       <c r="B2" t="n">
         <v>3</v>
       </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Leg-Locker Curse</t>
+          <t>Reparo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Oculus Reparo</t>
+          <t>Alohomora</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Peskipiksi Pesternomi</t>
+          <t>Alohomora</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vera Verto</t>
+          <t>Wingardium Leviosa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vera Verto</t>
+          <t>Wingardium Leviosa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vera Verto</t>
+          <t>Wingardium Leviosa</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brackium Emendo</t>
+          <t>Petrificus Totalus</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cistem Aperio</t>
+          <t>Alohomora</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Memory Charm</t>
+          <t>Lumos</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lumos Maxima</t>
+          <t>Lumos Solem</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lumos Maxima</t>
+          <t>Alohomora</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lumos Maxima</t>
+          <t>Oculus Reparo</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lumos Maxima</t>
+          <t>Reparo</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>39</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lumos Maxima</t>
+          <t>Peskipiksi Pesternomi</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>45</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Patronus Charm</t>
+          <t>Immobulus</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>45</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cruciatus Curse</t>
+          <t>Vera Verto</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>48</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Killing Curse</t>
+          <t>Vera Verto</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>48</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cruciatus Curse</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
         <v>49</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Patronus Charm</t>
+          <t>Brackium Emendo</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Levicorpus</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>51</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portus</t>
+          <t>Rictusempra</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>51</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Episkey</t>
+          <t>Serpensortia</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>52</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sectumsempra</t>
+          <t>Alarte Ascendare</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C25" t="n">
+        <v>52</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Summoning Charm</t>
+          <t>Vipera Evanesca</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>52</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sectumsempra</t>
+          <t>Wingardium Leviosa</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>54</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Protego totalum</t>
+          <t>Arania Exumai</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="C28" t="n">
+        <v>57</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Salvio hexia</t>
+          <t>Cistem Aperio</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="C29" t="n">
+        <v>57</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dissendium</t>
+          <t>Arania Exumai</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>61</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Protego totalum</t>
+          <t>Arania Exumai</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>61</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Salvio hexia</t>
+          <t>Obliviate</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>64</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cruciatus Curse</t>
+          <t>Lumos</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>71</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Protego Maxima</t>
+          <t>Lumos Maxima</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>71</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Riddikulus</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>80</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Riddikulus</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>136</v>
+      </c>
+      <c r="C36" t="n">
+        <v>80</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Riddikulus</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C37" t="n">
+        <v>80</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Riddikulus</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>136</v>
+      </c>
+      <c r="C38" t="n">
+        <v>80</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Riddikulus</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="n">
+        <v>80</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Riddikulus</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>80</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Riddikulus</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>78</v>
+      </c>
+      <c r="C41" t="n">
+        <v>80</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Riddikulus</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" t="n">
+        <v>80</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Arresto Momentum</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>84</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11</v>
+      </c>
+      <c r="C44" t="n">
+        <v>88</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>88</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>88</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Nox</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>89</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>11</v>
+      </c>
+      <c r="C49" t="n">
+        <v>93</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>94</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>94</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>95</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>96</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Immobulus</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" t="n">
+        <v>99</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>100</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Bombarda</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>100</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Priori Incantatem</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>130</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>131</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>131</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>131</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>132</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>11</v>
+      </c>
+      <c r="C62" t="n">
+        <v>132</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Impedimenta</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>50</v>
+      </c>
+      <c r="C63" t="n">
+        <v>144</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" t="n">
+        <v>145</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>10</v>
+      </c>
+      <c r="C65" t="n">
+        <v>145</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>18</v>
+      </c>
+      <c r="C66" t="n">
+        <v>149</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Impedimenta</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>42</v>
+      </c>
+      <c r="C67" t="n">
+        <v>149</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Levicorpus</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>42</v>
+      </c>
+      <c r="C68" t="n">
+        <v>149</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Locomotor</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>18</v>
+      </c>
+      <c r="C69" t="n">
+        <v>149</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Locomotor Mortis</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>18</v>
+      </c>
+      <c r="C70" t="n">
+        <v>149</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Accio</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>14</v>
+      </c>
+      <c r="C71" t="n">
+        <v>150</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Accio</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>19</v>
+      </c>
+      <c r="C72" t="n">
+        <v>150</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Accio</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>15</v>
+      </c>
+      <c r="C73" t="n">
+        <v>151</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Incarcerous</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C74" t="n">
+        <v>151</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10</v>
+      </c>
+      <c r="C75" t="n">
+        <v>151</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Alohomora</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>152</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Colloportus</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>152</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="n">
+        <v>152</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Impedimenta</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>129</v>
+      </c>
+      <c r="C79" t="n">
+        <v>152</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Crucio</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>22</v>
+      </c>
+      <c r="C80" t="n">
+        <v>152</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Protego</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>153</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Crucio</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>154</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Crucio</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>22</v>
+      </c>
+      <c r="C83" t="n">
+        <v>154</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Avada Kedavra</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>155</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Portus</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>155</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4</v>
+      </c>
+      <c r="C86" t="n">
+        <v>160</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Petrificus Totalus</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>12</v>
+      </c>
+      <c r="C87" t="n">
+        <v>162</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Episkey</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>25</v>
+      </c>
+      <c r="C88" t="n">
+        <v>162</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oppugno</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>170</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sectumsempra</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>176</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Accio</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>180</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Aguamenti</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>180</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Avada Kedavra</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+      <c r="C93" t="n">
+        <v>181</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Impedimenta</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>182</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sectumsempra</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>182</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Obliviate</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>184</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Avada Kedavra</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>9</v>
+      </c>
+      <c r="C97" t="n">
+        <v>185</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Stupefy</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>191</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Petrificus Totalus</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>191</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Obliviate</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>191</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Homenum Revelio</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>191</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Revelio</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>191</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>191</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>193</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Finite</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>194</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Finite</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>194</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Accio</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>194</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Stupefy</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>194</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>194</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Relashio</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>194</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Accio</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>195</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Protego</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>195</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Protego Totalum</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>195</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Salvio Hexia</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>195</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Muffliato</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>195</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Repello Muggletum</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>195</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Dissendium</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>195</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Incendio</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>195</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Expulso</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>195</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Confringo</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>195</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Protego</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>198</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Protego Totalum</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>198</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Salvio Hexia</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>198</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>199</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>200</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Confringo</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>200</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Accio</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>201</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>201</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Diffindo</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>201</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Engorgio</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>202</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Reducio</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>202</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Stupefy</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>207</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Stupefy</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>207</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Imperio</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>212</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Imperio</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>212</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>212</v>
+      </c>
+      <c r="D136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>212</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>212</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Relashio</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>214</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>215</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Protego</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>166</v>
+      </c>
+      <c r="C141" t="n">
+        <v>219</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Protego Maxima</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>166</v>
+      </c>
+      <c r="C142" t="n">
+        <v>219</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>Repello Inimicum</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B143" t="n">
         <v>166</v>
+      </c>
+      <c r="C143" t="n">
+        <v>219</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Avada Kedavra</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>99</v>
+      </c>
+      <c r="C144" t="n">
+        <v>223</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>223</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>225</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Confringo</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>231</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Confringo</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>232</v>
+      </c>
+      <c r="D148" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/SpellsDialogue.xlsx
+++ b/data/SpellsDialogue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oculus Reparo</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Reparo</t>
+          <t>Oculus Reparo</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -490,14 +490,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alohomora</t>
+          <t>Reparo</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>16</v>
@@ -522,14 +522,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wingardium Leviosa</t>
+          <t>Alohomora</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C7" t="n">
         <v>17</v>
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -570,14 +570,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Petrificus Totalus</t>
+          <t>Wingardium Leviosa</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -586,14 +586,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alohomora</t>
+          <t>Wingardium Leviosa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -602,7 +602,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Petrificus Totalus</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -618,7 +618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lumos Solem</t>
+          <t>Alohomora</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -634,11 +634,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alohomora</t>
+          <t>Lumos</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>27</v>
@@ -650,46 +650,46 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Oculus Reparo</t>
+          <t>Lumos Solem</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reparo</t>
+          <t>Alohomora</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Peskipiksi Pesternomi</t>
+          <t>Oculus Reparo</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Immobulus</t>
+          <t>Reparo</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -714,14 +714,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vera Verto</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -730,14 +730,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Vera Verto</t>
+          <t>Peskipiksi Pesternomi</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -746,14 +746,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Finite</t>
+          <t>Immobulus</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -762,14 +762,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brackium Emendo</t>
+          <t>Vera Verto</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Vera Verto</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rictusempra</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Serpensortia</t>
+          <t>Brackium Emendo</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Alarte Ascendare</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -842,14 +842,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Vipera Evanesca</t>
+          <t>Rictusempra</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -858,14 +858,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Wingardium Leviosa</t>
+          <t>Serpensortia</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -874,14 +874,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Arania Exumai</t>
+          <t>Alarte Ascendare</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -890,14 +890,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cistem Aperio</t>
+          <t>Vipera Evanesca</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -906,14 +906,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Arania Exumai</t>
+          <t>Wingardium Leviosa</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -938,14 +938,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Obliviate</t>
+          <t>Cistem Aperio</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -954,62 +954,62 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Arania Exumai</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lumos Maxima</t>
+          <t>Arania Exumai</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Riddikulus</t>
+          <t>Obliviate</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C35" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Riddikulus</t>
+          <t>Lumos</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
@@ -1018,14 +1018,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Riddikulus</t>
+          <t>Lumos Maxima</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D37" t="n">
         <v>3</v>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
         <v>80</v>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C39" t="n">
         <v>80</v>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C40" t="n">
         <v>80</v>
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C41" t="n">
         <v>80</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="n">
         <v>80</v>
@@ -1114,14 +1114,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Arresto Momentum</t>
+          <t>Riddikulus</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D43" t="n">
         <v>3</v>
@@ -1130,14 +1130,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Riddikulus</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C44" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D44" t="n">
         <v>3</v>
@@ -1146,14 +1146,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Riddikulus</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D45" t="n">
         <v>3</v>
@@ -1162,14 +1162,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Arresto Momentum</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D46" t="n">
         <v>3</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C47" t="n">
         <v>88</v>
@@ -1194,14 +1194,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nox</t>
+          <t>Expecto Patronum</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" t="n">
         <v>3</v>
@@ -1210,14 +1210,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Expecto Patronum</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D49" t="n">
         <v>3</v>
@@ -1226,14 +1226,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Expecto Patronum</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D50" t="n">
         <v>3</v>
@@ -1242,14 +1242,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Nox</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D51" t="n">
         <v>3</v>
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D52" t="n">
         <v>3</v>
@@ -1274,14 +1274,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D53" t="n">
         <v>3</v>
@@ -1290,14 +1290,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Immobulus</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D54" t="n">
         <v>3</v>
@@ -1306,14 +1306,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D55" t="n">
         <v>3</v>
@@ -1322,14 +1322,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bombarda</t>
+          <t>Expecto Patronum</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D56" t="n">
         <v>3</v>
@@ -1338,110 +1338,110 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Priori Incantatem</t>
+          <t>Immobulus</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Expecto Patronum</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Bombarda</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Imperio</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Imperio</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C61" t="n">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Priori Incantatem</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Impedimenta</t>
+          <t>Lumos</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -1450,14 +1450,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Expecto Patronum</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
@@ -1466,14 +1466,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Expecto Patronum</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -1482,14 +1482,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Lumos</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D66" t="n">
         <v>5</v>
@@ -1498,14 +1498,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Impedimenta</t>
+          <t>Expecto Patronum</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C67" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
@@ -1514,14 +1514,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Levicorpus</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D68" t="n">
         <v>5</v>
@@ -1530,14 +1530,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Locomotor</t>
+          <t>Imperio</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D69" t="n">
         <v>5</v>
@@ -1546,14 +1546,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Locomotor Mortis</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C70" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -1562,14 +1562,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Accio</t>
+          <t>Impedimenta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C71" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
@@ -1578,14 +1578,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Accio</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D72" t="n">
         <v>5</v>
@@ -1594,14 +1594,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Accio</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C73" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D73" t="n">
         <v>5</v>
@@ -1610,14 +1610,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Incarcerous</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C74" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
@@ -1626,14 +1626,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Impedimenta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C75" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D75" t="n">
         <v>5</v>
@@ -1642,14 +1642,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Alohomora</t>
+          <t>Levicorpus</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C76" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D76" t="n">
         <v>5</v>
@@ -1658,14 +1658,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Colloportus</t>
+          <t>Locomotor</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C77" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D77" t="n">
         <v>5</v>
@@ -1674,14 +1674,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Locomotor Mortis</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C78" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D78" t="n">
         <v>5</v>
@@ -1690,14 +1690,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Impedimenta</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="C79" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D79" t="n">
         <v>5</v>
@@ -1706,14 +1706,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Crucio</t>
+          <t>Accio</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C80" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D80" t="n">
         <v>5</v>
@@ -1722,14 +1722,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Protego</t>
+          <t>Accio</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D81" t="n">
         <v>5</v>
@@ -1738,14 +1738,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Crucio</t>
+          <t>Accio</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C82" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D82" t="n">
         <v>5</v>
@@ -1754,14 +1754,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Crucio</t>
+          <t>Incarcerous</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C83" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
@@ -1770,14 +1770,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Avada Kedavra</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D84" t="n">
         <v>5</v>
@@ -1786,14 +1786,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Portus</t>
+          <t>Alohomora</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D85" t="n">
         <v>5</v>
@@ -1802,209 +1802,209 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Colloportus</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Petrificus Totalus</t>
+          <t>Portus</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Episkey</t>
+          <t>Avada Kedavra</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C88" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Oppugno</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C89" t="n">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sectumsempra</t>
+          <t>Impedimenta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C90" t="n">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Accio</t>
+          <t>Crucio</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C91" t="n">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Aguamenti</t>
+          <t>Protego</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Avada Kedavra</t>
+          <t>Crucio</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Impedimenta</t>
+          <t>Crucio</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C94" t="n">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sectumsempra</t>
+          <t>Avada Kedavra</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C95" t="n">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Obliviate</t>
+          <t>Avada Kedavra</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C96" t="n">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Avada Kedavra</t>
+          <t>Portus</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D97" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Stupefy</t>
+          <t>Lumos</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -2014,170 +2014,170 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Obliviate</t>
+          <t>Episkey</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C100" t="n">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Homenum Revelio</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D101" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Revelio</t>
+          <t>Oppugno</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D102" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Sectumsempra</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D103" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Accio</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D104" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Finite</t>
+          <t>Aguamenti</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105" t="n">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D105" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Finite</t>
+          <t>Avada Kedavra</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C106" t="n">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Accio</t>
+          <t>Impedimenta</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Stupefy</t>
+          <t>Sectumsempra</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D108" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Obliviate</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D109" t="n">
         <v>7</v>
@@ -2186,14 +2186,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Relashio</t>
+          <t>Avada Kedavra</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C110" t="n">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D110" t="n">
         <v>7</v>
@@ -2202,14 +2202,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Accio</t>
+          <t>Avada Kedavra</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C111" t="n">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D111" t="n">
         <v>7</v>
@@ -2218,14 +2218,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Protego</t>
+          <t>Stupefy</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D112" t="n">
         <v>7</v>
@@ -2234,14 +2234,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Protego Totalum</t>
+          <t>Petrificus Totalus</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D113" t="n">
         <v>7</v>
@@ -2250,14 +2250,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Salvio Hexia</t>
+          <t>Obliviate</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D114" t="n">
         <v>7</v>
@@ -2266,14 +2266,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Muffliato</t>
+          <t>Homenum Revelio</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D115" t="n">
         <v>7</v>
@@ -2282,14 +2282,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Repello Muggletum</t>
+          <t>Revelio</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D116" t="n">
         <v>7</v>
@@ -2298,14 +2298,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Dissendium</t>
+          <t>Lumos</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D117" t="n">
         <v>7</v>
@@ -2314,14 +2314,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Incendio</t>
+          <t>Expelliarmus</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D118" t="n">
         <v>7</v>
@@ -2330,14 +2330,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Expulso</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D119" t="n">
         <v>7</v>
@@ -2346,14 +2346,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Confringo</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D120" t="n">
         <v>7</v>
@@ -2362,14 +2362,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Protego</t>
+          <t>Accio</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D121" t="n">
         <v>7</v>
@@ -2378,14 +2378,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Protego Totalum</t>
+          <t>Stupefy</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D122" t="n">
         <v>7</v>
@@ -2394,14 +2394,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Salvio Hexia</t>
+          <t>Expecto Patronum</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D123" t="n">
         <v>7</v>
@@ -2410,14 +2410,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Relashio</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D124" t="n">
         <v>7</v>
@@ -2426,14 +2426,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Accio</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D125" t="n">
         <v>7</v>
@@ -2442,14 +2442,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Confringo</t>
+          <t>Protego</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D126" t="n">
         <v>7</v>
@@ -2458,14 +2458,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Accio</t>
+          <t>Protego Totalum</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D127" t="n">
         <v>7</v>
@@ -2474,14 +2474,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Salvio Hexia</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C128" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D128" t="n">
         <v>7</v>
@@ -2490,14 +2490,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Diffindo</t>
+          <t>Muffliato</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D129" t="n">
         <v>7</v>
@@ -2506,14 +2506,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Engorgio</t>
+          <t>Repello Muggletum</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D130" t="n">
         <v>7</v>
@@ -2522,14 +2522,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Reducio</t>
+          <t>Dissendium</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D131" t="n">
         <v>7</v>
@@ -2538,14 +2538,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Stupefy</t>
+          <t>Incendio</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132" t="n">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D132" t="n">
         <v>7</v>
@@ -2554,14 +2554,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Stupefy</t>
+          <t>Expulso</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D133" t="n">
         <v>7</v>
@@ -2570,65 +2570,65 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Imperio</t>
+          <t>Confringo</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Imperio</t>
+          <t>Protego</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D135" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Protego Totalum</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D136" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Lumos</t>
+          <t>Salvio Hexia</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D137" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -2641,169 +2641,425 @@
         <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D138" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Relashio</t>
+          <t>Lumos</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D139" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Confringo</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D140" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Protego</t>
+          <t>Accio</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D141" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Protego Maxima</t>
+          <t>Lumos</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D142" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Repello Inimicum</t>
+          <t>Diffindo</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D143" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Avada Kedavra</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D144" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Expelliarmus</t>
+          <t>Engorgio</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D145" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Expecto Patronum</t>
+          <t>Reducio</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="D146" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Confringo</t>
+          <t>Stupefy</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>Stupefy</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>207</v>
+      </c>
+      <c r="D148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Imperio</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>212</v>
+      </c>
+      <c r="D149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Imperio</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>212</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>212</v>
+      </c>
+      <c r="D151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>212</v>
+      </c>
+      <c r="D152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Lumos</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>212</v>
+      </c>
+      <c r="D153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Relashio</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>214</v>
+      </c>
+      <c r="D154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>215</v>
+      </c>
+      <c r="D155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Finite</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>59</v>
+      </c>
+      <c r="C156" t="n">
+        <v>219</v>
+      </c>
+      <c r="D156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Protego</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>166</v>
+      </c>
+      <c r="C157" t="n">
+        <v>219</v>
+      </c>
+      <c r="D157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Protego Maxima</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>166</v>
+      </c>
+      <c r="C158" t="n">
+        <v>219</v>
+      </c>
+      <c r="D158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Repello Inimicum</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>166</v>
+      </c>
+      <c r="C159" t="n">
+        <v>219</v>
+      </c>
+      <c r="D159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Avada Kedavra</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>99</v>
+      </c>
+      <c r="C160" t="n">
+        <v>223</v>
+      </c>
+      <c r="D160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Expelliarmus</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>223</v>
+      </c>
+      <c r="D161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Expecto Patronum</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>225</v>
+      </c>
+      <c r="D162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t>Confringo</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>1</v>
-      </c>
-      <c r="C148" t="n">
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>231</v>
+      </c>
+      <c r="D163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Confringo</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
         <v>232</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D164" t="n">
         <v>8</v>
       </c>
     </row>
